--- a/HT-5/Optica BAC-10-Catálogo de conceptos.xlsx
+++ b/HT-5/Optica BAC-10-Catálogo de conceptos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07C5C5-4546-544A-BB72-DCE95EDB738D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60895E0-C168-FA48-8DC5-3C752BA4A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28800" yWindow="-5900" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-10" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>Lente</t>
   </si>
   <si>
-    <t>ProveedorLentes</t>
-  </si>
-  <si>
-    <t>ProveedorMonturas</t>
-  </si>
-  <si>
     <t>Optómetra</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Vidrio transparente utilizado para la corrección de la visión</t>
   </si>
   <si>
-    <t>Empresa a la que se le compran los lentes formulados o con modificaciones</t>
-  </si>
-  <si>
     <t>Empresa a la que se le compran las monturas</t>
   </si>
   <si>
@@ -121,6 +112,15 @@
   </si>
   <si>
     <t>Persona que necesita un examen ocular para saber la corrección que debe tener en sus ojos</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Empresa a la que se le compran los lentes formulados o con modificaciones y se le encargan los arreglos.</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,7 +519,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.15">
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.15">
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -583,71 +583,71 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
